--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vtn-Plaur.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vtn-Plaur.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>7.134618000000001</v>
+        <v>5.835941000000001</v>
       </c>
       <c r="H2">
-        <v>21.403854</v>
+        <v>17.507823</v>
       </c>
       <c r="I2">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117328</v>
       </c>
       <c r="J2">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117327</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.91845899999999</v>
+        <v>1.847479</v>
       </c>
       <c r="N2">
-        <v>131.755377</v>
+        <v>5.542437</v>
       </c>
       <c r="O2">
-        <v>0.8150909120558798</v>
+        <v>0.3181373042830636</v>
       </c>
       <c r="P2">
-        <v>0.8150909120558799</v>
+        <v>0.3181373042830637</v>
       </c>
       <c r="Q2">
-        <v>313.3414281136619</v>
+        <v>10.781778442739</v>
       </c>
       <c r="R2">
-        <v>2820.072853022958</v>
+        <v>97.036005984651</v>
       </c>
       <c r="S2">
-        <v>0.0786821864591522</v>
+        <v>0.01159178863312981</v>
       </c>
       <c r="T2">
-        <v>0.07868218645915222</v>
+        <v>0.01159178863312981</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>7.134618000000001</v>
+        <v>5.835941000000001</v>
       </c>
       <c r="H3">
-        <v>21.403854</v>
+        <v>17.507823</v>
       </c>
       <c r="I3">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117328</v>
       </c>
       <c r="J3">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117327</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>2.100310333333333</v>
       </c>
       <c r="N3">
-        <v>6.300931</v>
+        <v>6.300930999999999</v>
       </c>
       <c r="O3">
-        <v>0.03898005312975703</v>
+        <v>0.3616750542791174</v>
       </c>
       <c r="P3">
-        <v>0.03898005312975704</v>
+        <v>0.3616750542791174</v>
       </c>
       <c r="Q3">
-        <v>14.984911909786</v>
+        <v>12.25728718702367</v>
       </c>
       <c r="R3">
-        <v>134.864207188074</v>
+        <v>110.315584683213</v>
       </c>
       <c r="S3">
-        <v>0.003762814384480509</v>
+        <v>0.01317814895215503</v>
       </c>
       <c r="T3">
-        <v>0.00376281438448051</v>
+        <v>0.01317814895215503</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>7.134618000000001</v>
+        <v>5.835941000000001</v>
       </c>
       <c r="H4">
-        <v>21.403854</v>
+        <v>17.507823</v>
       </c>
       <c r="I4">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117328</v>
       </c>
       <c r="J4">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117327</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.862900000000001</v>
+        <v>1.859385666666666</v>
       </c>
       <c r="N4">
-        <v>23.5887</v>
+        <v>5.578156999999999</v>
       </c>
       <c r="O4">
-        <v>0.1459290348143631</v>
+        <v>0.320187641437819</v>
       </c>
       <c r="P4">
-        <v>0.1459290348143631</v>
+        <v>0.320187641437819</v>
       </c>
       <c r="Q4">
-        <v>56.09878787220001</v>
+        <v>10.85126504691233</v>
       </c>
       <c r="R4">
-        <v>504.8890908498001</v>
+        <v>97.661385422211</v>
       </c>
       <c r="S4">
-        <v>0.01408679124897502</v>
+        <v>0.01166649560588844</v>
       </c>
       <c r="T4">
-        <v>0.01408679124897502</v>
+        <v>0.01166649560588843</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.50798033333333</v>
+        <v>17.50798033333334</v>
       </c>
       <c r="H5">
-        <v>52.52394099999999</v>
+        <v>52.52394100000001</v>
       </c>
       <c r="I5">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="J5">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>43.91845899999999</v>
+        <v>1.847479</v>
       </c>
       <c r="N5">
-        <v>131.755377</v>
+        <v>5.542437</v>
       </c>
       <c r="O5">
-        <v>0.8150909120558798</v>
+        <v>0.3181373042830636</v>
       </c>
       <c r="P5">
-        <v>0.8150909120558799</v>
+        <v>0.3181373042830637</v>
       </c>
       <c r="Q5">
-        <v>768.9235164423061</v>
+        <v>32.34562599824633</v>
       </c>
       <c r="R5">
-        <v>6920.311647980755</v>
+        <v>291.110633984217</v>
       </c>
       <c r="S5">
-        <v>0.1930819804382663</v>
+        <v>0.03477567840678884</v>
       </c>
       <c r="T5">
-        <v>0.1930819804382663</v>
+        <v>0.03477567840678884</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.50798033333333</v>
+        <v>17.50798033333334</v>
       </c>
       <c r="H6">
-        <v>52.52394099999999</v>
+        <v>52.52394100000001</v>
       </c>
       <c r="I6">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="J6">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,13 +803,13 @@
         <v>2.100310333333333</v>
       </c>
       <c r="N6">
-        <v>6.300931</v>
+        <v>6.300930999999999</v>
       </c>
       <c r="O6">
-        <v>0.03898005312975703</v>
+        <v>0.3616750542791174</v>
       </c>
       <c r="P6">
-        <v>0.03898005312975704</v>
+        <v>0.3616750542791174</v>
       </c>
       <c r="Q6">
         <v>36.77219200989678</v>
@@ -818,10 +818,10 @@
         <v>330.949728089071</v>
       </c>
       <c r="S6">
-        <v>0.009233750179963177</v>
+        <v>0.03953480213115032</v>
       </c>
       <c r="T6">
-        <v>0.009233750179963177</v>
+        <v>0.03953480213115031</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.50798033333333</v>
+        <v>17.50798033333334</v>
       </c>
       <c r="H7">
-        <v>52.52394099999999</v>
+        <v>52.52394100000001</v>
       </c>
       <c r="I7">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="J7">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.862900000000001</v>
+        <v>1.859385666666666</v>
       </c>
       <c r="N7">
-        <v>23.5887</v>
+        <v>5.578156999999999</v>
       </c>
       <c r="O7">
-        <v>0.1459290348143631</v>
+        <v>0.320187641437819</v>
       </c>
       <c r="P7">
-        <v>0.1459290348143631</v>
+        <v>0.320187641437819</v>
       </c>
       <c r="Q7">
-        <v>137.6634985629667</v>
+        <v>32.55408768408189</v>
       </c>
       <c r="R7">
-        <v>1238.9714870667</v>
+        <v>292.986789156737</v>
       </c>
       <c r="S7">
-        <v>0.03456825076644982</v>
+        <v>0.03499980133911815</v>
       </c>
       <c r="T7">
-        <v>0.03456825076644982</v>
+        <v>0.03499980133911815</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>49.26691733333334</v>
+        <v>136.8238143333333</v>
       </c>
       <c r="H8">
-        <v>147.800752</v>
+        <v>410.471443</v>
       </c>
       <c r="I8">
-        <v>0.666584226522713</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="J8">
-        <v>0.666584226522713</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>43.91845899999999</v>
+        <v>1.847479</v>
       </c>
       <c r="N8">
-        <v>131.755377</v>
+        <v>5.542437</v>
       </c>
       <c r="O8">
-        <v>0.8150909120558798</v>
+        <v>0.3181373042830636</v>
       </c>
       <c r="P8">
-        <v>0.8150909120558799</v>
+        <v>0.3181373042830637</v>
       </c>
       <c r="Q8">
-        <v>2163.727088960389</v>
+        <v>252.7791236807323</v>
       </c>
       <c r="R8">
-        <v>19473.5438006435</v>
+        <v>2275.012113126591</v>
       </c>
       <c r="S8">
-        <v>0.5433267451584614</v>
+        <v>0.271769837243145</v>
       </c>
       <c r="T8">
-        <v>0.5433267451584614</v>
+        <v>0.271769837243145</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>49.26691733333334</v>
+        <v>136.8238143333333</v>
       </c>
       <c r="H9">
-        <v>147.800752</v>
+        <v>410.471443</v>
       </c>
       <c r="I9">
-        <v>0.666584226522713</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="J9">
-        <v>0.666584226522713</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>2.100310333333333</v>
       </c>
       <c r="N9">
-        <v>6.300931</v>
+        <v>6.300930999999999</v>
       </c>
       <c r="O9">
-        <v>0.03898005312975703</v>
+        <v>0.3616750542791174</v>
       </c>
       <c r="P9">
-        <v>0.03898005312975704</v>
+        <v>0.3616750542791174</v>
       </c>
       <c r="Q9">
-        <v>103.4758155666791</v>
+        <v>287.3724710903815</v>
       </c>
       <c r="R9">
-        <v>931.2823401001122</v>
+        <v>2586.352239813433</v>
       </c>
       <c r="S9">
-        <v>0.02598348856531335</v>
+        <v>0.308962103195812</v>
       </c>
       <c r="T9">
-        <v>0.02598348856531335</v>
+        <v>0.308962103195812</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>49.26691733333334</v>
+        <v>136.8238143333333</v>
       </c>
       <c r="H10">
-        <v>147.800752</v>
+        <v>410.471443</v>
       </c>
       <c r="I10">
-        <v>0.666584226522713</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="J10">
-        <v>0.666584226522713</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.862900000000001</v>
+        <v>1.859385666666666</v>
       </c>
       <c r="N10">
-        <v>23.5887</v>
+        <v>5.578156999999999</v>
       </c>
       <c r="O10">
-        <v>0.1459290348143631</v>
+        <v>0.320187641437819</v>
       </c>
       <c r="P10">
-        <v>0.1459290348143631</v>
+        <v>0.320187641437819</v>
       </c>
       <c r="Q10">
-        <v>387.3808443002667</v>
+        <v>254.4082392300612</v>
       </c>
       <c r="R10">
-        <v>3486.427598702401</v>
+        <v>2289.674153070551</v>
       </c>
       <c r="S10">
-        <v>0.09727399279893829</v>
+        <v>0.2735213444928125</v>
       </c>
       <c r="T10">
-        <v>0.09727399279893831</v>
+        <v>0.2735213444928125</v>
       </c>
     </row>
   </sheetData>
